--- a/data/CS1/case18_3/case18_3_2030.xlsx
+++ b/data/CS1/case18_3/case18_3_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case18_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB8758E-16C0-4F87-8476-4F5B8C39D1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453963B5-AF20-4E3D-8792-B1129764EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="20" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27604,7 +27604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
@@ -44756,7 +44756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CACB78C-E034-4D5F-9D9E-330237C5FD39}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
